--- a/Symphony_Work2/テスト/テスト結果表.xlsx
+++ b/Symphony_Work2/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="240">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェックが付いていること</t>
     <rPh sb="5" eb="6">
       <t>ツ</t>
@@ -257,14 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キーボード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>十字キー</t>
     <rPh sb="0" eb="2">
       <t>ジュウジ</t>
@@ -279,16 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字の入力ができること</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クリックしたセルに移動すること</t>
     <rPh sb="9" eb="11">
       <t>イドウ</t>
@@ -307,10 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Enterキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力モードでなければ下のセルに移動すること</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -320,31 +294,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>翌週、先週の日曜日に日付が変わり、その週のデータがあれば表示すること</t>
-    <rPh sb="0" eb="2">
-      <t>ヨクシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニチヨウビ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3085,6 +3034,135 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日がが含まれる週のデータがあれば表示されること
+なければ空で表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字の入力ができること
+パートの勤務は大文字で入力されること</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その週のデータがある場合</t>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その週のデータを表示すること</t>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その週のデータがない場合</t>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務割からその週のデータを参照し、各勤務のセルに名前を反映させること</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンエイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3364,7 +3442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3407,327 +3485,336 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3780,6 +3867,12 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4085,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
@@ -4102,7 +4195,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4133,23 +4226,23 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>78</v>
+      <c r="A2" s="66"/>
+      <c r="B2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="29">
+        <v>222</v>
+      </c>
+      <c r="G2" s="25">
         <v>43490</v>
       </c>
       <c r="H2" s="3"/>
@@ -4164,17 +4257,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="70"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="29">
+        <v>222</v>
+      </c>
+      <c r="G3" s="25">
         <v>43490</v>
       </c>
       <c r="H3" s="1"/>
@@ -4189,17 +4282,17 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="70"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="71"/>
       <c r="F4" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="29">
+        <v>222</v>
+      </c>
+      <c r="G4" s="25">
         <v>43490</v>
       </c>
       <c r="H4" s="1"/>
@@ -4214,17 +4307,17 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="G5" s="25">
         <v>43490</v>
       </c>
       <c r="H5" s="2"/>
@@ -4239,23 +4332,23 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>84</v>
+      <c r="A6" s="66"/>
+      <c r="B6" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="29">
+        <v>222</v>
+      </c>
+      <c r="G6" s="25">
         <v>43490</v>
       </c>
       <c r="H6" s="1"/>
@@ -4269,19 +4362,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>86</v>
+      <c r="A7" s="66"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="29">
+        <v>222</v>
+      </c>
+      <c r="G7" s="25">
         <v>43490</v>
       </c>
       <c r="H7" s="1"/>
@@ -4295,23 +4388,23 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>84</v>
+      <c r="C8" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="29">
+        <v>222</v>
+      </c>
+      <c r="G8" s="25">
         <v>43490</v>
       </c>
       <c r="I8" s="1"/>
@@ -4325,19 +4418,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>89</v>
+      <c r="A9" s="66"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="29">
+        <v>222</v>
+      </c>
+      <c r="G9" s="25">
         <v>43490</v>
       </c>
       <c r="I9" s="1"/>
@@ -4345,23 +4438,23 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68" t="s">
         <v>84</v>
       </c>
+      <c r="C10" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="29">
+        <v>222</v>
+      </c>
+      <c r="G10" s="25">
         <v>43490</v>
       </c>
       <c r="I10" s="1"/>
@@ -4375,19 +4468,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>93</v>
+      <c r="A11" s="66"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="29">
+        <v>222</v>
+      </c>
+      <c r="G11" s="25">
         <v>43490</v>
       </c>
       <c r="I11" s="1"/>
@@ -4395,21 +4488,21 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="63"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="79"/>
       <c r="E12" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="29">
+        <v>222</v>
+      </c>
+      <c r="G12" s="25">
         <v>43490</v>
       </c>
       <c r="H12" s="1"/>
@@ -4423,19 +4516,19 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="63"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="79"/>
       <c r="E13" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="29">
+        <v>222</v>
+      </c>
+      <c r="G13" s="25">
         <v>43490</v>
       </c>
       <c r="H13" s="1"/>
@@ -4449,21 +4542,21 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="63"/>
+      <c r="C14" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="79"/>
       <c r="E14" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="29">
+        <v>222</v>
+      </c>
+      <c r="G14" s="25">
         <v>43490</v>
       </c>
       <c r="H14" s="1"/>
@@ -4477,19 +4570,19 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="63"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="79"/>
       <c r="E15" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G15" s="29">
+        <v>222</v>
+      </c>
+      <c r="G15" s="25">
         <v>43490</v>
       </c>
       <c r="H15" s="1"/>
@@ -4551,8 +4644,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
-        <v>100</v>
+      <c r="A1" s="80" t="s">
+        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -4583,1843 +4676,1843 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86"/>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="80"/>
+      <c r="B3" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="G3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="89"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="80"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="33" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="34">
+      <c r="G4" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="30">
         <v>43490</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="108" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="80"/>
+      <c r="B5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="110"/>
-    </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="117" t="s">
+      <c r="C5" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="89"/>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="80"/>
+      <c r="B6" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="89"/>
+    </row>
+    <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="80"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="89"/>
+    </row>
+    <row r="8" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="80"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="89"/>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="80"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="89"/>
+    </row>
+    <row r="10" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="89"/>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+    </row>
+    <row r="12" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="92"/>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="80"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="110"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+    </row>
+    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="80"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="112"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
+      <c r="B16" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="34">
+      <c r="D16" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="30">
         <v>43490</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="113"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="I16" s="1"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="30">
         <v>43490</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="113"/>
-    </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="37" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+    </row>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="80"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="80"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="80"/>
+      <c r="B21" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="107"/>
+      <c r="F21" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="80"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="107"/>
+      <c r="F22" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="80"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+    </row>
+    <row r="24" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="80"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="80"/>
+      <c r="B25" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="107"/>
+      <c r="F25" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="80"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="107"/>
+      <c r="F26" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+    </row>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="80"/>
+      <c r="B27" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="119"/>
+      <c r="F27" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+    </row>
+    <row r="28" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="80"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="80"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="80"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="80"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+    </row>
+    <row r="32" spans="1:25" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="80"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+    </row>
+    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="80"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+    </row>
+    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="80"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+    </row>
+    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="80"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+    </row>
+    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="80"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+    </row>
+    <row r="37" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="80"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="123"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+    </row>
+    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="80"/>
+      <c r="B38" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+    </row>
+    <row r="39" spans="1:25" ht="81" x14ac:dyDescent="0.15">
+      <c r="A39" s="80"/>
+      <c r="B39" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+    </row>
+    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="80"/>
+      <c r="B40" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="107"/>
+      <c r="F40" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+    </row>
+    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="80"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="107"/>
+      <c r="F41" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+    </row>
+    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="80"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+    </row>
+    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="80"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+    </row>
+    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="80"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="E44" s="107"/>
+      <c r="F44" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="30">
         <v>43490</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113"/>
-    </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="83" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+    </row>
+    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="80"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+    </row>
+    <row r="46" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="80"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+    </row>
+    <row r="47" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="80"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+    </row>
+    <row r="48" spans="1:25" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="80"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="80"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H49" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="80"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="80"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="30">
+        <v>43490</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="80"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="E52" s="107"/>
+      <c r="F52" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52" s="30">
         <v>43490</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="113"/>
-    </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="113"/>
-    </row>
-    <row r="8" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="113"/>
-    </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="113"/>
-    </row>
-    <row r="10" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="113"/>
-    </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="113"/>
-    </row>
-    <row r="12" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="107"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="116"/>
-    </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="97" t="s">
+      <c r="I52" s="1"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="80"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="T14" s="98"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-    </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="107"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-    </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-    </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-    </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="107"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-    </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
-      <c r="B21" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-    </row>
-    <row r="24" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-    </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-    </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-    </row>
-    <row r="28" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-    </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="107"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-    </row>
-    <row r="32" spans="1:25" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-    </row>
-    <row r="33" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-    </row>
-    <row r="34" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-    </row>
-    <row r="36" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-    </row>
-    <row r="37" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-    </row>
-    <row r="38" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-    </row>
-    <row r="39" spans="1:25" ht="81" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-    </row>
-    <row r="40" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-    </row>
-    <row r="41" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-    </row>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="107"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H42" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-    </row>
-    <row r="43" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="76"/>
-      <c r="F43" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H43" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-    </row>
-    <row r="44" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="76"/>
-      <c r="F44" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-    </row>
-    <row r="45" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H45" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-    </row>
-    <row r="46" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-    </row>
-    <row r="47" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-    </row>
-    <row r="48" spans="1:25" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="42"/>
-    </row>
-    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="42"/>
-    </row>
-    <row r="50" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H50" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="42"/>
-    </row>
-    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="42"/>
-    </row>
-    <row r="52" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="76"/>
-      <c r="F52" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="34">
-        <v>43490</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="42"/>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H53" s="34">
+      <c r="H53" s="30">
         <v>43490</v>
       </c>
       <c r="I53" s="1"/>
@@ -6433,11 +6526,11 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -6452,11 +6545,11 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -6471,11 +6564,11 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -6490,11 +6583,11 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -6509,11 +6602,11 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -6528,11 +6621,11 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -6547,11 +6640,11 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -6566,11 +6659,11 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -6585,11 +6678,11 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -6604,11 +6697,11 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6623,11 +6716,11 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -6642,11 +6735,11 @@
       <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -6661,11 +6754,11 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -6680,11 +6773,11 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -6699,11 +6792,11 @@
       <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A68" s="53"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -6718,11 +6811,11 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A69" s="53"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -6737,11 +6830,11 @@
       <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A70" s="53"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -6756,11 +6849,11 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A71" s="53"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -6775,11 +6868,11 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6794,11 +6887,11 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -6813,11 +6906,11 @@
       <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -6832,11 +6925,11 @@
       <c r="Q74" s="1"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -6851,11 +6944,11 @@
       <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A76" s="53"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6870,11 +6963,11 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A77" s="53"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -6889,11 +6982,11 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A78" s="53"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -6908,11 +7001,11 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6927,10 +7020,10 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6941,75 +7034,123 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:B37"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J14:L52"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="S14:T38"/>
+    <mergeCell ref="N15:O52"/>
+    <mergeCell ref="P15:Q52"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:A53"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="J2:Y12"/>
@@ -7026,54 +7167,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J14:L52"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="S14:T38"/>
-    <mergeCell ref="N15:O52"/>
-    <mergeCell ref="P15:Q52"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:B37"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7083,10 +7176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7103,7 +7196,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7115,13 +7208,13 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3"/>
@@ -7134,21 +7227,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="21" t="s">
-        <v>69</v>
+      <c r="D2" s="61"/>
+      <c r="E2" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="16">
+        <v>64</v>
+      </c>
+      <c r="G2" s="14">
         <v>43488</v>
       </c>
       <c r="H2" s="3"/>
@@ -7162,22 +7255,23 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="119"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="22" t="s">
-        <v>41</v>
+      <c r="C3" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="16">
+        <v>64</v>
+      </c>
+      <c r="G3" s="14">
         <v>43488</v>
       </c>
       <c r="H3" s="2"/>
@@ -7191,48 +7285,48 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="57"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43552</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="63"/>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="16">
-        <v>43488</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
-        <v>25</v>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="16">
+        <v>66</v>
+      </c>
+      <c r="G5" s="14">
         <v>43488</v>
       </c>
       <c r="H5" s="1"/>
@@ -7246,19 +7340,19 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="119"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>28</v>
+      <c r="A6" s="63"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="16">
+        <v>64</v>
+      </c>
+      <c r="G6" s="14">
         <v>43488</v>
       </c>
       <c r="H6" s="1"/>
@@ -7272,21 +7366,19 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="119"/>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
-        <v>24</v>
+      <c r="A7" s="63"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="59" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="16">
+        <v>64</v>
+      </c>
+      <c r="G7" s="14">
         <v>43488</v>
       </c>
       <c r="H7" s="1"/>
@@ -7300,26 +7392,27 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
-        <v>25</v>
+      <c r="A8" s="63"/>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="59" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="16">
+        <v>66</v>
+      </c>
+      <c r="G8" s="14">
         <v>43488</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -7327,19 +7420,19 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="119"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
+      <c r="C9" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="16">
+        <v>67</v>
+      </c>
+      <c r="G9" s="14">
         <v>43488</v>
       </c>
       <c r="H9" s="1"/>
@@ -7353,22 +7446,20 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="119"/>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="22" t="s">
-        <v>67</v>
+      <c r="D10" s="60"/>
+      <c r="E10" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16">
+        <v>64</v>
+      </c>
+      <c r="G10" s="14">
         <v>43488</v>
       </c>
       <c r="H10" s="1"/>
@@ -7382,24 +7473,22 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
+    <row r="11" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="63"/>
+      <c r="B11" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="16">
+        <v>66</v>
+      </c>
+      <c r="G11" s="14">
         <v>43488</v>
       </c>
       <c r="H11" s="1"/>
@@ -7413,20 +7502,23 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="16">
+        <v>228</v>
+      </c>
+      <c r="G12" s="14">
         <v>43488</v>
       </c>
       <c r="H12" s="1"/>
@@ -7441,19 +7533,20 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
+      <c r="C13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="16">
+        <v>230</v>
+      </c>
+      <c r="G13" s="14">
         <v>43488</v>
       </c>
       <c r="H13" s="1"/>
@@ -7467,21 +7560,20 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="12"/>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
+      <c r="C14" s="12"/>
+      <c r="D14" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="16">
-        <v>43488</v>
+        <v>232</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43552</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7495,19 +7587,18 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="16">
+        <v>234</v>
+      </c>
+      <c r="G15" s="14">
         <v>43488</v>
       </c>
       <c r="H15" s="1"/>
@@ -7521,24 +7612,19 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>74</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="62" t="s">
+        <v>32</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="16">
+        <v>230</v>
+      </c>
+      <c r="G16" s="14">
         <v>43488</v>
       </c>
       <c r="H16" s="1"/>
@@ -7553,19 +7639,18 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="119"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>57</v>
+      <c r="B17" s="13"/>
+      <c r="C17" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="16">
+        <v>228</v>
+      </c>
+      <c r="G17" s="14">
         <v>43488</v>
       </c>
       <c r="H17" s="1"/>
@@ -7579,22 +7664,24 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="119"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="63"/>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="16">
+        <v>66</v>
+      </c>
+      <c r="G18" s="14">
         <v>43488</v>
       </c>
       <c r="H18" s="1"/>
@@ -7609,19 +7696,19 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="119"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="22" t="s">
-        <v>50</v>
+      <c r="D19" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="16">
+        <v>65</v>
+      </c>
+      <c r="G19" s="14">
         <v>43488</v>
       </c>
       <c r="H19" s="1"/>
@@ -7635,22 +7722,22 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="119"/>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="14" t="s">
+    <row r="20" spans="1:17" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="63"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="7" t="s">
-        <v>46</v>
+      <c r="D20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="16">
+        <v>66</v>
+      </c>
+      <c r="G20" s="14">
         <v>43488</v>
       </c>
       <c r="H20" s="1"/>
@@ -7665,21 +7752,19 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="119"/>
-      <c r="B21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
+      <c r="A21" s="63"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="16">
+        <v>66</v>
+      </c>
+      <c r="G21" s="14">
         <v>43488</v>
       </c>
       <c r="H21" s="1"/>
@@ -7693,24 +7778,22 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="119"/>
-      <c r="B22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="16">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="63"/>
+      <c r="B22" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="14">
         <v>43488</v>
       </c>
       <c r="H22" s="1"/>
@@ -7725,19 +7808,21 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="119"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
+      <c r="A23" s="63"/>
+      <c r="B23" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="62" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="16">
+        <v>66</v>
+      </c>
+      <c r="G23" s="14">
         <v>43488</v>
       </c>
       <c r="H23" s="1"/>
@@ -7752,21 +7837,23 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="16">
+      <c r="A24" s="63"/>
+      <c r="B24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="14">
         <v>43488</v>
       </c>
       <c r="H24" s="1"/>
@@ -7780,22 +7867,20 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="119"/>
-      <c r="B25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10" t="s">
-        <v>62</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="63"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>49</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="16">
+        <v>64</v>
+      </c>
+      <c r="G25" s="14">
         <v>43488</v>
       </c>
       <c r="H25" s="1"/>
@@ -7809,22 +7894,22 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="120"/>
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="63"/>
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="16">
+      <c r="G26" s="14">
         <v>43488</v>
       </c>
       <c r="H26" s="1"/>
@@ -7838,7 +7923,25 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="63"/>
+      <c r="B27" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="14">
+        <v>43488</v>
+      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -7849,15 +7952,108 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+      <c r="A28" s="64"/>
+      <c r="B28" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="14">
+        <v>43488</v>
+      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="14">
+        <v>43447</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" s="57"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="14">
+        <v>43552</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A26"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7885,10 +8081,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -7916,21 +8112,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="28" t="s">
-        <v>213</v>
+      <c r="A2" s="66"/>
+      <c r="B2" s="133" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="29">
+        <v>73</v>
+      </c>
+      <c r="G2" s="25">
         <v>43490</v>
       </c>
       <c r="H2" s="3"/>
@@ -7945,19 +8141,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="28" t="s">
-        <v>214</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="29">
+        <v>73</v>
+      </c>
+      <c r="G3" s="25">
         <v>43490</v>
       </c>
       <c r="H3" s="1"/>
@@ -7972,19 +8168,19 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="57" t="s">
-        <v>216</v>
+      <c r="A4" s="66"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="29">
+        <v>73</v>
+      </c>
+      <c r="G4" s="25">
         <v>43490</v>
       </c>
       <c r="H4" s="1"/>
@@ -7999,21 +8195,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="136" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="30" t="s">
-        <v>229</v>
+      <c r="A5" s="66"/>
+      <c r="B5" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="29">
+        <v>73</v>
+      </c>
+      <c r="G5" s="25">
         <v>43490</v>
       </c>
       <c r="H5" s="1"/>
@@ -8027,373 +8223,373 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="59" t="s">
-        <v>220</v>
+      <c r="A6" s="67"/>
+      <c r="B6" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="141"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="29">
+        <v>73</v>
+      </c>
+      <c r="G6" s="25">
         <v>43490</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I7" s="121" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="123"/>
+      <c r="I7" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="126"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="129"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I9" s="124"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="129"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="129"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I13" s="124"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I14" s="124"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="129"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="129"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="129"/>
     </row>
     <row r="17" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129"/>
     </row>
     <row r="18" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I18" s="124"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="129"/>
     </row>
     <row r="19" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I19" s="124"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
     </row>
     <row r="20" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="129"/>
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="129"/>
     </row>
     <row r="22" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="129"/>
     </row>
     <row r="23" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="129"/>
     </row>
     <row r="24" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="129"/>
     </row>
     <row r="25" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="129"/>
     </row>
     <row r="26" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="129"/>
     </row>
     <row r="27" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="129"/>
     </row>
     <row r="28" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I28" s="124"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="129"/>
     </row>
     <row r="29" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="129"/>
     </row>
     <row r="30" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I30" s="124"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="129"/>
     </row>
     <row r="31" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="129"/>
     </row>
     <row r="32" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="129"/>
     </row>
     <row r="33" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I33" s="124"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="128"/>
+      <c r="P33" s="129"/>
     </row>
     <row r="34" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I34" s="124"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="125"/>
-      <c r="P34" s="126"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="129"/>
     </row>
     <row r="35" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I35" s="124"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="126"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="129"/>
     </row>
     <row r="36" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="126"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="129"/>
     </row>
     <row r="37" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="126"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="129"/>
     </row>
     <row r="38" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="126"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="129"/>
     </row>
     <row r="39" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I39" s="124"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="126"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="129"/>
     </row>
     <row r="40" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I40" s="124"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="126"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="129"/>
     </row>
     <row r="41" spans="9:16" x14ac:dyDescent="0.15">
-      <c r="I41" s="127"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="129"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
+      <c r="P41" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="8">
